--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,10 +29,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -51,7 +51,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -65,31 +65,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,77 +164,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,37 +196,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,145 +376,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,6 +395,62 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -417,8 +473,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -426,64 +482,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,10 +495,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -507,37 +507,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,94 +543,97 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -992,15 +992,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="11.5"/>
+    <col min="3" max="3" width="11.8181818181818"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1077,6 +1077,21 @@
       <c r="D7">
         <f>A7-A6</f>
         <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>382</v>
+      </c>
+      <c r="B8">
+        <v>184</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43080</v>
+      </c>
+      <c r="D8">
+        <f>A8-A7</f>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1095,7 +1110,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1112,7 +1127,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -51,7 +81,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -66,7 +135,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -74,53 +150,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -128,60 +181,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,187 +196,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,13 +399,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -425,6 +429,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -436,6 +458,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,39 +487,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -495,10 +495,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -507,133 +507,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -992,15 +992,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="11.8181818181818"/>
+    <col min="3" max="3" width="11.8166666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1021,7 +1021,7 @@
         <v>183</v>
       </c>
       <c r="D3">
-        <f>A3-A2</f>
+        <f t="shared" ref="D3:D8" si="0">A3-A2</f>
         <v>31</v>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
         <v>216</v>
       </c>
       <c r="D4">
-        <f>A4-A3</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
         <v>43076</v>
       </c>
       <c r="D5">
-        <f>A5-A4</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
         <v>43077</v>
       </c>
       <c r="D6">
-        <f>A6-A5</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
         <v>43079</v>
       </c>
       <c r="D7">
-        <f>A7-A6</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -1090,8 +1090,23 @@
         <v>43080</v>
       </c>
       <c r="D8">
-        <f>A8-A7</f>
+        <f t="shared" si="0"/>
         <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>410</v>
+      </c>
+      <c r="B9">
+        <v>190</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43081</v>
+      </c>
+      <c r="D9">
+        <f>A9-A8</f>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1110,7 +1125,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1127,7 +1142,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>描习字帖</t>
   </si>
   <si>
     <t>english号</t>
+  </si>
+  <si>
+    <t>加强版</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>星期日</t>
+  </si>
+  <si>
+    <t>星期一</t>
+  </si>
+  <si>
+    <t>星期二</t>
   </si>
 </sst>
 </file>
@@ -29,10 +53,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -40,6 +64,74 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -52,27 +144,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -80,15 +158,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,14 +174,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -118,9 +182,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,59 +210,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -196,187 +220,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,11 +414,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -414,50 +444,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,6 +478,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -495,10 +519,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -507,133 +531,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -992,23 +1016,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="11.8166666666667"/>
+    <col min="4" max="4" width="11.8181818181818"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1016,97 +1043,139 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>183</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D8" si="0">A3-A2</f>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="0">A3-A2</f>
         <v>31</v>
       </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>216</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>251</v>
       </c>
       <c r="B5">
         <v>152</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>43076</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>289</v>
       </c>
       <c r="B6">
         <v>164</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>43077</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>349</v>
       </c>
       <c r="B7">
         <v>175</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>43079</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>382</v>
       </c>
       <c r="B8">
         <v>184</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>43080</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>410</v>
       </c>
       <c r="B9">
         <v>190</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>43081</v>
       </c>
-      <c r="D9">
-        <f>A9-A8</f>
+      <c r="E9">
+        <f t="shared" si="0"/>
         <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>441</v>
+      </c>
+      <c r="B10">
+        <v>196</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43082</v>
+      </c>
+      <c r="E10">
+        <f>A10-A9</f>
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1125,7 +1194,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1142,7 +1211,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,10 +53,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -74,6 +74,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -82,54 +129,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,67 +210,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -220,61 +220,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,121 +388,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,6 +411,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -429,17 +444,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,13 +482,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,39 +511,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -519,10 +519,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,133 +531,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,15 +1016,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="4" max="4" width="11.8181818181818"/>
+    <col min="4" max="4" width="11.8166666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1048,7 +1048,7 @@
         <v>183</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="0">A3-A2</f>
+        <f t="shared" ref="E3:E10" si="0">A3-A2</f>
         <v>31</v>
       </c>
       <c r="F3" t="s">
@@ -1171,11 +1171,32 @@
         <v>43082</v>
       </c>
       <c r="E10">
-        <f>A10-A9</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="F10" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>473</v>
+      </c>
+      <c r="B11">
+        <v>207</v>
+      </c>
+      <c r="C11">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43083</v>
+      </c>
+      <c r="E11">
+        <f>A11-A10</f>
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1194,7 +1215,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1211,7 +1232,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+  <si>
+    <t>总</t>
+  </si>
   <si>
     <t>描习字帖</t>
   </si>
@@ -53,10 +56,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -68,48 +71,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,8 +106,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,16 +129,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,29 +162,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,7 +177,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,8 +198,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,19 +223,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,163 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,59 +428,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,6 +461,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -519,10 +522,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,133 +534,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,18 +1019,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="11.8166666666667"/>
+    <col min="5" max="5" width="11.8181818181818"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1037,166 +1040,193 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="2" spans="2:2">
+      <c r="B2">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+    <row r="3" spans="2:7">
+      <c r="B3">
         <v>183</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E10" si="0">A3-A2</f>
+      <c r="F3">
+        <f t="shared" ref="F3:F12" si="0">B3-B2</f>
         <v>31</v>
       </c>
-      <c r="F3" t="s">
-        <v>3</v>
+      <c r="G3" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
+    <row r="4" spans="2:7">
+      <c r="B4">
         <v>216</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="F4" t="s">
-        <v>4</v>
+      <c r="G4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
+    <row r="5" spans="2:7">
+      <c r="B5">
         <v>251</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>152</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>43076</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F5" t="s">
-        <v>5</v>
+      <c r="G5" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
+    <row r="6" spans="2:7">
+      <c r="B6">
         <v>289</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>164</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>43077</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="F6" t="s">
-        <v>6</v>
+      <c r="G6" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
+    <row r="7" spans="2:7">
+      <c r="B7">
         <v>349</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>175</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>43079</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F7" t="s">
-        <v>7</v>
+      <c r="G7" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
+    <row r="8" spans="2:7">
+      <c r="B8">
         <v>382</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>184</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>43080</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="F8" t="s">
-        <v>8</v>
+      <c r="G8" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
+    <row r="9" spans="2:7">
+      <c r="B9">
         <v>410</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>190</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>43081</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="F9" t="s">
-        <v>9</v>
+      <c r="G9" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
+    <row r="10" spans="2:7">
+      <c r="B10">
         <v>441</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>196</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>17</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>43082</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="F10" t="s">
-        <v>3</v>
+      <c r="G10" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
+    <row r="11" spans="2:7">
+      <c r="B11">
         <v>473</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>207</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>44</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>43083</v>
       </c>
-      <c r="E11">
-        <f>A11-A10</f>
+      <c r="F11">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="F11" t="s">
-        <v>4</v>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>861</v>
+      </c>
+      <c r="B12">
+        <v>581</v>
+      </c>
+      <c r="C12">
+        <v>212</v>
+      </c>
+      <c r="D12">
+        <v>76</v>
+      </c>
+      <c r="E12" s="1">
+        <v>43085</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1215,7 +1245,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1232,7 +1262,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,10 +56,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -71,12 +71,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -85,6 +100,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -92,7 +138,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,54 +190,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,38 +208,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,187 +223,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +428,59 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,59 +514,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -522,10 +522,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,133 +534,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,15 +1019,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="11.8181818181818"/>
+    <col min="5" max="5" width="11.8166666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1054,7 +1054,7 @@
         <v>183</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F12" si="0">B3-B2</f>
+        <f t="shared" ref="F3:F13" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="G3" t="s">
@@ -1227,6 +1227,27 @@
       </c>
       <c r="G12" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>984</v>
+      </c>
+      <c r="B13">
+        <v>629</v>
+      </c>
+      <c r="C13">
+        <v>214</v>
+      </c>
+      <c r="D13">
+        <v>80</v>
+      </c>
+      <c r="E13" s="1">
+        <v>43086</v>
+      </c>
+      <c r="F13">
+        <f>B13-B12</f>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1245,7 +1266,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1262,7 +1283,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -56,10 +56,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -71,6 +71,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -78,22 +85,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,39 +152,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,56 +190,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,13 +223,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,169 +397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,21 +414,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -471,16 +456,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,6 +499,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -522,145 +522,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,13 +1019,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="5" max="5" width="11.8166666666667"/>
   </cols>
@@ -1229,7 +1229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>984</v>
       </c>
@@ -1243,11 +1243,46 @@
         <v>80</v>
       </c>
       <c r="E13" s="1">
-        <v>43086</v>
+        <v>43087</v>
       </c>
       <c r="F13">
-        <f>B13-B12</f>
+        <f t="shared" si="0"/>
         <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <f>A13-A12</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>1178</v>
+      </c>
+      <c r="B14">
+        <v>704</v>
+      </c>
+      <c r="C14">
+        <v>221</v>
+      </c>
+      <c r="D14">
+        <v>129</v>
+      </c>
+      <c r="E14" s="1">
+        <v>43088</v>
+      </c>
+      <c r="F14">
+        <f>B14-B13</f>
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <f>A14-A13</f>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,8 +56,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -84,8 +84,101 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,68 +194,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,45 +209,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,43 +229,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,84 +391,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -362,48 +404,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,28 +420,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,6 +465,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -485,32 +506,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,145 +522,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1054,7 +1054,7 @@
         <v>183</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F13" si="0">B3-B2</f>
+        <f t="shared" ref="F3:F14" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="G3" t="s">
@@ -1274,7 +1274,7 @@
         <v>43088</v>
       </c>
       <c r="F14">
-        <f>B14-B13</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="G14" t="s">

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,8 +77,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,85 +161,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +191,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -200,15 +206,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,187 +223,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,30 +414,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,6 +441,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -482,11 +473,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,9 +506,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,145 +522,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,15 +1019,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="5" max="5" width="11.8166666666667"/>
+    <col min="5" max="5" width="11.8181818181818"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1283,6 +1283,34 @@
       <c r="H14">
         <f>A14-A13</f>
         <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>1292</v>
+      </c>
+      <c r="B15">
+        <v>773</v>
+      </c>
+      <c r="C15">
+        <v>232</v>
+      </c>
+      <c r="D15">
+        <v>143</v>
+      </c>
+      <c r="E15" s="1">
+        <v>43089</v>
+      </c>
+      <c r="F15">
+        <f>B15-B14</f>
+        <v>69</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <f>A15-A14</f>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1301,7 +1329,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1318,7 +1346,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>总</t>
   </si>
@@ -24,10 +24,16 @@
     <t>描习字帖</t>
   </si>
   <si>
-    <t>english号</t>
+    <t>englishhao</t>
   </si>
   <si>
     <t>加强版</t>
+  </si>
+  <si>
+    <t>四年级上册pep</t>
+  </si>
+  <si>
+    <t>日期</t>
   </si>
   <si>
     <t>星期三</t>
@@ -56,10 +62,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -77,11 +83,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,45 +166,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,55 +212,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +229,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -235,175 +409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,15 +420,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,17 +438,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,15 +500,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -490,27 +507,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,7 +531,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,142 +540,151 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1019,298 +1034,338 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="11.8181818181818"/>
+    <col min="1" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="10.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.8166666666667" style="2"/>
+    <col min="8" max="8" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2">
+      <c r="B2" s="2">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
-      <c r="B3">
+    <row r="3" spans="2:8">
+      <c r="B3" s="2">
         <v>183</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F14" si="0">B3-B2</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G15" si="0">B3-B2</f>
         <v>31</v>
       </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4">
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="2">
         <v>216</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5">
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="2">
         <v>251</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>152</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="4">
         <v>43076</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6">
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="2">
         <v>289</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>164</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="4">
         <v>43077</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7">
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="2">
         <v>349</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>175</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="4">
         <v>43079</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8">
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="2">
         <v>382</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>184</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="4">
         <v>43080</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9">
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="2">
         <v>410</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>190</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="4">
         <v>43081</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10">
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="2">
         <v>441</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>196</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>17</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="4">
         <v>43082</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="G10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11">
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="2">
         <v>473</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>207</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>44</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="4">
         <v>43083</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="G11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
         <v>861</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>581</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>212</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>76</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="4">
         <v>43085</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="G12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2">
         <v>984</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>629</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>214</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>80</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="4">
         <v>43087</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13">
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13">
         <f>A13-A12</f>
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
+    <row r="14" spans="1:9">
+      <c r="A14" s="2">
         <v>1178</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>704</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>221</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>129</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="4">
         <v>43088</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14">
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14">
         <f>A14-A13</f>
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
+    <row r="15" spans="1:9">
+      <c r="A15" s="2">
         <v>1292</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>773</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>232</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>143</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="4">
         <v>43089</v>
       </c>
-      <c r="F15">
-        <f>B15-B14</f>
+      <c r="G15">
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="G15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15">
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15">
         <f>A15-A14</f>
         <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2">
+        <v>1548</v>
+      </c>
+      <c r="B16" s="2">
+        <v>820</v>
+      </c>
+      <c r="C16" s="2">
+        <v>236</v>
+      </c>
+      <c r="D16" s="2">
+        <v>174</v>
+      </c>
+      <c r="E16" s="2">
+        <v>484</v>
+      </c>
+      <c r="F16" s="4">
+        <v>43090</v>
+      </c>
+      <c r="G16">
+        <f>B16-B15</f>
+        <v>47</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <f>A16-A15</f>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -1329,7 +1384,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1346,7 +1401,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -62,10 +62,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -77,74 +77,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,30 +136,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -206,15 +152,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,187 +229,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,6 +420,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -458,30 +506,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -496,30 +520,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -528,10 +528,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,133 +540,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,10 +1034,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I13" sqref="I13:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1078,7 +1078,7 @@
         <v>183</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G15" si="0">B3-B2</f>
+        <f t="shared" ref="G3:G16" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="H3" t="s">
@@ -1357,7 +1357,7 @@
         <v>43090</v>
       </c>
       <c r="G16">
-        <f>B16-B15</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="H16" t="s">
@@ -1366,6 +1366,37 @@
       <c r="I16">
         <f>A16-A15</f>
         <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2">
+        <v>2038</v>
+      </c>
+      <c r="B17" s="2">
+        <v>841</v>
+      </c>
+      <c r="C17" s="2">
+        <v>244</v>
+      </c>
+      <c r="D17" s="2">
+        <v>194</v>
+      </c>
+      <c r="E17" s="2">
+        <v>508</v>
+      </c>
+      <c r="F17" s="4">
+        <v>43091</v>
+      </c>
+      <c r="G17">
+        <f>B17-B16</f>
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <f>A17-A16</f>
+        <v>490</v>
       </c>
     </row>
   </sheetData>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,8 +64,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -85,6 +85,35 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,24 +128,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,6 +165,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -152,14 +198,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,53 +215,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,181 +235,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,6 +420,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,17 +462,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,41 +476,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,6 +494,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -528,145 +528,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,18 +1034,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:I17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="10.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.8166666666667" style="2"/>
-    <col min="8" max="8" width="7.375" customWidth="1"/>
+    <col min="5" max="5" width="10.3727272727273" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.8181818181818" style="2"/>
+    <col min="8" max="8" width="7.37272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
@@ -1078,7 +1078,7 @@
         <v>183</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G16" si="0">B3-B2</f>
+        <f t="shared" ref="G3:G17" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="H3" t="s">
@@ -1388,7 +1388,7 @@
         <v>43091</v>
       </c>
       <c r="G17">
-        <f>B17-B16</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="H17" t="s">
@@ -1397,6 +1397,23 @@
       <c r="I17">
         <f>A17-A16</f>
         <v>490</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>2139</v>
+      </c>
+      <c r="B18" s="2">
+        <v>850</v>
+      </c>
+      <c r="C18" s="2">
+        <v>245</v>
+      </c>
+      <c r="D18" s="2">
+        <v>210</v>
+      </c>
+      <c r="E18" s="2">
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -1415,7 +1432,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1432,7 +1449,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,6 +83,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -97,23 +121,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,93 +168,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,25 +229,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,151 +349,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,6 +442,26 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -462,11 +482,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,32 +520,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -528,10 +528,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,133 +540,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,18 +1034,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="10.3727272727273" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.8181818181818" style="2"/>
-    <col min="8" max="8" width="7.37272727272727" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.8166666666667" style="2"/>
+    <col min="8" max="8" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
@@ -1399,7 +1399,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>2139</v>
       </c>
@@ -1414,6 +1414,51 @@
       </c>
       <c r="E18" s="2">
         <v>529</v>
+      </c>
+      <c r="F18" s="4">
+        <v>43092</v>
+      </c>
+      <c r="G18">
+        <f>B18-B17</f>
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18">
+        <f>A18-A17</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2">
+        <v>2249</v>
+      </c>
+      <c r="B19" s="2">
+        <v>885</v>
+      </c>
+      <c r="C19" s="2">
+        <v>245</v>
+      </c>
+      <c r="D19" s="2">
+        <v>226</v>
+      </c>
+      <c r="E19" s="2">
+        <v>546</v>
+      </c>
+      <c r="F19" s="4">
+        <v>43093</v>
+      </c>
+      <c r="G19">
+        <f>B19-B18</f>
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <f>A19-A18</f>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1432,7 +1477,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1449,7 +1494,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>总</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>四年级上册pep</t>
+  </si>
+  <si>
+    <t>三年级上册pep</t>
   </si>
   <si>
     <t>日期</t>
@@ -62,10 +65,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,8 +87,67 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,22 +170,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,89 +222,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -229,97 +232,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,85 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,17 +426,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,8 +438,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,46 +489,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,10 +531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,133 +543,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,21 +1037,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="10.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.8166666666667" style="2"/>
-    <col min="8" max="8" width="7.375" customWidth="1"/>
+    <col min="5" max="6" width="10.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" style="2"/>
+    <col min="9" max="9" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1066,6 +1069,9 @@
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -1073,121 +1079,121 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:9">
       <c r="B3" s="2">
         <v>183</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G17" si="0">B3-B2</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H19" si="0">B3-B2</f>
         <v>31</v>
       </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="2">
         <v>216</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="2">
         <v>251</v>
       </c>
       <c r="C5" s="2">
         <v>152</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>43076</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="2">
         <v>289</v>
       </c>
       <c r="C6" s="2">
         <v>164</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>43077</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="2">
         <v>349</v>
       </c>
       <c r="C7" s="2">
         <v>175</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>43079</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="2">
         <v>382</v>
       </c>
       <c r="C8" s="2">
         <v>184</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>43080</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="2">
         <v>410</v>
       </c>
       <c r="C9" s="2">
         <v>190</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>43081</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="2">
         <v>441</v>
       </c>
@@ -1197,18 +1203,18 @@
       <c r="D10" s="2">
         <v>17</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>43082</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="H10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" s="2">
         <v>473</v>
       </c>
@@ -1218,18 +1224,18 @@
       <c r="D11" s="2">
         <v>44</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>43083</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>861</v>
       </c>
@@ -1242,18 +1248,18 @@
       <c r="D12" s="2">
         <v>76</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>43085</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>984</v>
       </c>
@@ -1266,22 +1272,22 @@
       <c r="D13" s="2">
         <v>80</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>43087</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13">
-        <f>A13-A12</f>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13:J19" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>1178</v>
       </c>
@@ -1294,22 +1300,22 @@
       <c r="D14" s="2">
         <v>129</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>43088</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14">
-        <f>A14-A13</f>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>1292</v>
       </c>
@@ -1322,22 +1328,22 @@
       <c r="D15" s="2">
         <v>143</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>43089</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="H15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15">
-        <f>A15-A14</f>
+      <c r="I15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>1548</v>
       </c>
@@ -1353,22 +1359,22 @@
       <c r="E16" s="2">
         <v>484</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>43090</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="H16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16">
-        <f>A16-A15</f>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>2038</v>
       </c>
@@ -1384,22 +1390,22 @@
       <c r="E17" s="2">
         <v>508</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>43091</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17">
-        <f>A17-A16</f>
+      <c r="I17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
         <v>490</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>2139</v>
       </c>
@@ -1415,22 +1421,22 @@
       <c r="E18" s="2">
         <v>529</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>43092</v>
       </c>
-      <c r="G18">
-        <f>B18-B17</f>
+      <c r="H18">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18">
-        <f>A18-A17</f>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>2249</v>
       </c>
@@ -1446,18 +1452,18 @@
       <c r="E19" s="2">
         <v>546</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>43093</v>
       </c>
-      <c r="G19">
-        <f>B19-B18</f>
+      <c r="H19">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="H19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19">
-        <f>A19-A18</f>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,10 +65,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,6 +81,42 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,60 +130,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,8 +154,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,37 +165,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,6 +177,51 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -238,181 +238,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,11 +426,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,23 +444,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,21 +485,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -523,6 +499,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -531,10 +531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,133 +543,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,18 +1037,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="6" width="10.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.8166666666667" style="2"/>
-    <col min="9" max="9" width="7.375" customWidth="1"/>
+    <col min="5" max="6" width="10.3727272727273" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.8181818181818" style="2"/>
+    <col min="9" max="9" width="7.37272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
@@ -1465,6 +1465,40 @@
       <c r="J19">
         <f t="shared" si="1"/>
         <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2">
+        <v>2329</v>
+      </c>
+      <c r="B20" s="2">
+        <v>907</v>
+      </c>
+      <c r="C20" s="2">
+        <v>248</v>
+      </c>
+      <c r="D20" s="2">
+        <v>235</v>
+      </c>
+      <c r="E20" s="2">
+        <v>564</v>
+      </c>
+      <c r="F20" s="2">
+        <v>115</v>
+      </c>
+      <c r="G20" s="4">
+        <v>43094</v>
+      </c>
+      <c r="H20">
+        <f>B20-B19</f>
+        <v>22</v>
+      </c>
+      <c r="I20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20">
+        <f>A20-A19</f>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1483,7 +1517,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1500,7 +1534,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>总</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>三年级上册pep</t>
+  </si>
+  <si>
+    <t>五年级上册pep</t>
+  </si>
+  <si>
+    <t>六年级上册pep</t>
   </si>
   <si>
     <t>日期</t>
@@ -67,8 +73,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -79,6 +85,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -93,6 +114,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -110,13 +148,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,41 +161,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,39 +221,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,19 +238,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,31 +358,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,37 +382,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,85 +400,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,6 +429,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -467,20 +493,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,15 +529,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -531,145 +537,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,21 +1043,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="6" width="10.3727272727273" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" style="2"/>
-    <col min="9" max="9" width="7.37272727272727" customWidth="1"/>
+    <col min="5" max="8" width="10.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.8166666666667" style="2"/>
+    <col min="11" max="11" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1072,6 +1078,12 @@
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -1079,121 +1091,121 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:11">
       <c r="B3" s="2">
         <v>183</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H19" si="0">B3-B2</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J20" si="0">B3-B2</f>
         <v>31</v>
       </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
       <c r="B4" s="2">
         <v>216</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" s="2">
         <v>251</v>
       </c>
       <c r="C5" s="2">
         <v>152</v>
       </c>
-      <c r="G5" s="4">
+      <c r="I5" s="4">
         <v>43076</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="I5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
       <c r="B6" s="2">
         <v>289</v>
       </c>
       <c r="C6" s="2">
         <v>164</v>
       </c>
-      <c r="G6" s="4">
+      <c r="I6" s="4">
         <v>43077</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="2">
         <v>349</v>
       </c>
       <c r="C7" s="2">
         <v>175</v>
       </c>
-      <c r="G7" s="4">
+      <c r="I7" s="4">
         <v>43079</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" s="2">
         <v>382</v>
       </c>
       <c r="C8" s="2">
         <v>184</v>
       </c>
-      <c r="G8" s="4">
+      <c r="I8" s="4">
         <v>43080</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" s="2">
         <v>410</v>
       </c>
       <c r="C9" s="2">
         <v>190</v>
       </c>
-      <c r="G9" s="4">
+      <c r="I9" s="4">
         <v>43081</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" s="2">
         <v>441</v>
       </c>
@@ -1203,18 +1215,18 @@
       <c r="D10" s="2">
         <v>17</v>
       </c>
-      <c r="G10" s="4">
+      <c r="I10" s="4">
         <v>43082</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="I10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="2">
         <v>473</v>
       </c>
@@ -1224,18 +1236,18 @@
       <c r="D11" s="2">
         <v>44</v>
       </c>
-      <c r="G11" s="4">
+      <c r="I11" s="4">
         <v>43083</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>861</v>
       </c>
@@ -1248,18 +1260,18 @@
       <c r="D12" s="2">
         <v>76</v>
       </c>
-      <c r="G12" s="4">
+      <c r="I12" s="4">
         <v>43085</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>984</v>
       </c>
@@ -1272,22 +1284,22 @@
       <c r="D13" s="2">
         <v>80</v>
       </c>
-      <c r="G13" s="4">
+      <c r="I13" s="4">
         <v>43087</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13">
-        <f t="shared" ref="J13:J19" si="1">A13-A12</f>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13:L20" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>1178</v>
       </c>
@@ -1300,22 +1312,22 @@
       <c r="D14" s="2">
         <v>129</v>
       </c>
-      <c r="G14" s="4">
+      <c r="I14" s="4">
         <v>43088</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="I14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14">
+      <c r="K14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="1"/>
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>1292</v>
       </c>
@@ -1328,22 +1340,22 @@
       <c r="D15" s="2">
         <v>143</v>
       </c>
-      <c r="G15" s="4">
+      <c r="I15" s="4">
         <v>43089</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="I15" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15">
+      <c r="K15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
         <v>1548</v>
       </c>
@@ -1359,22 +1371,22 @@
       <c r="E16" s="2">
         <v>484</v>
       </c>
-      <c r="G16" s="4">
+      <c r="I16" s="4">
         <v>43090</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="I16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16">
+      <c r="K16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="1"/>
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:12">
       <c r="A17" s="2">
         <v>2038</v>
       </c>
@@ -1390,22 +1402,22 @@
       <c r="E17" s="2">
         <v>508</v>
       </c>
-      <c r="G17" s="4">
+      <c r="I17" s="4">
         <v>43091</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17">
+      <c r="K17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="1"/>
         <v>490</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:12">
       <c r="A18" s="2">
         <v>2139</v>
       </c>
@@ -1421,22 +1433,22 @@
       <c r="E18" s="2">
         <v>529</v>
       </c>
-      <c r="G18" s="4">
+      <c r="I18" s="4">
         <v>43092</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18">
+      <c r="K18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:12">
       <c r="A19" s="2">
         <v>2249</v>
       </c>
@@ -1452,22 +1464,22 @@
       <c r="E19" s="2">
         <v>546</v>
       </c>
-      <c r="G19" s="4">
+      <c r="I19" s="4">
         <v>43093</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="I19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19">
+      <c r="K19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:12">
       <c r="A20" s="2">
         <v>2329</v>
       </c>
@@ -1486,19 +1498,59 @@
       <c r="F20" s="2">
         <v>115</v>
       </c>
-      <c r="G20" s="4">
+      <c r="I20" s="4">
         <v>43094</v>
       </c>
-      <c r="H20">
-        <f>B20-B19</f>
+      <c r="J20">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="I20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20">
-        <f>A20-A19</f>
+      <c r="K20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
         <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2">
+        <v>2449</v>
+      </c>
+      <c r="B21" s="2">
+        <v>936</v>
+      </c>
+      <c r="C21" s="2">
+        <v>253</v>
+      </c>
+      <c r="D21" s="2">
+        <v>245</v>
+      </c>
+      <c r="E21" s="2">
+        <v>578</v>
+      </c>
+      <c r="F21" s="2">
+        <v>131</v>
+      </c>
+      <c r="G21" s="2">
+        <v>19</v>
+      </c>
+      <c r="H21" s="2">
+        <v>26</v>
+      </c>
+      <c r="I21" s="4">
+        <v>43095</v>
+      </c>
+      <c r="J21">
+        <f>B21-B20</f>
+        <v>29</v>
+      </c>
+      <c r="K21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21">
+        <f>A21-A20</f>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1517,7 +1569,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1534,7 +1586,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,15 +71,96 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -94,21 +175,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,17 +199,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,97 +228,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -238,31 +238,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,7 +376,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,139 +406,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,17 +436,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -467,15 +456,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -487,6 +467,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,6 +518,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -537,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,133 +549,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,10 +1043,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1096,7 +1096,7 @@
         <v>183</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J20" si="0">B3-B2</f>
+        <f t="shared" ref="J3:J21" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="K3" t="s">
@@ -1295,7 +1295,7 @@
         <v>14</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:L20" si="1">A13-A12</f>
+        <f t="shared" ref="L13:L21" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -1542,15 +1542,55 @@
         <v>43095</v>
       </c>
       <c r="J21">
-        <f>B21-B20</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="K21" t="s">
         <v>15</v>
       </c>
       <c r="L21">
-        <f>A21-A20</f>
+        <f t="shared" si="1"/>
         <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2">
+        <v>2719</v>
+      </c>
+      <c r="B22" s="2">
+        <v>961</v>
+      </c>
+      <c r="C22" s="2">
+        <v>262</v>
+      </c>
+      <c r="D22" s="2">
+        <v>280</v>
+      </c>
+      <c r="E22" s="2">
+        <v>588</v>
+      </c>
+      <c r="F22" s="2">
+        <v>141</v>
+      </c>
+      <c r="G22" s="2">
+        <v>36</v>
+      </c>
+      <c r="H22" s="2">
+        <v>40</v>
+      </c>
+      <c r="I22" s="4">
+        <v>43096</v>
+      </c>
+      <c r="J22">
+        <f>B22-B21</f>
+        <v>25</v>
+      </c>
+      <c r="K22" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22">
+        <f>A22-A21</f>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,8 +72,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -86,6 +86,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -93,7 +116,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,54 +207,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,45 +221,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -220,14 +228,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -238,187 +238,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,54 +437,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,6 +457,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -519,13 +515,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,133 +549,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,10 +1043,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1096,7 +1096,7 @@
         <v>183</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J21" si="0">B3-B2</f>
+        <f t="shared" ref="J3:J22" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="K3" t="s">
@@ -1295,7 +1295,7 @@
         <v>14</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:L21" si="1">A13-A12</f>
+        <f t="shared" ref="L13:L22" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -1582,15 +1582,55 @@
         <v>43096</v>
       </c>
       <c r="J22">
-        <f>B22-B21</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="K22" t="s">
         <v>9</v>
       </c>
       <c r="L22">
-        <f>A22-A21</f>
+        <f t="shared" si="1"/>
         <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2">
+        <v>2719</v>
+      </c>
+      <c r="B23" s="2">
+        <v>984</v>
+      </c>
+      <c r="C23" s="2">
+        <v>271</v>
+      </c>
+      <c r="D23" s="2">
+        <v>301</v>
+      </c>
+      <c r="E23" s="2">
+        <v>599</v>
+      </c>
+      <c r="F23" s="2">
+        <v>150</v>
+      </c>
+      <c r="G23" s="2">
+        <v>42</v>
+      </c>
+      <c r="H23" s="2">
+        <v>45</v>
+      </c>
+      <c r="I23" s="4">
+        <v>43097</v>
+      </c>
+      <c r="J23">
+        <f>B23-B22</f>
+        <v>23</v>
+      </c>
+      <c r="K23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23">
+        <f>A23-A22</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -72,9 +72,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -85,8 +85,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,44 +214,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -147,83 +223,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,187 +238,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,48 +434,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,17 +447,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -529,6 +481,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -537,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,133 +549,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,10 +1043,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1096,7 +1096,7 @@
         <v>183</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J22" si="0">B3-B2</f>
+        <f t="shared" ref="J3:J23" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="K3" t="s">
@@ -1295,7 +1295,7 @@
         <v>14</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:L22" si="1">A13-A12</f>
+        <f t="shared" ref="L13:L23" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -1622,15 +1622,55 @@
         <v>43097</v>
       </c>
       <c r="J23">
-        <f>B23-B22</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="K23" t="s">
         <v>10</v>
       </c>
       <c r="L23">
-        <f>A23-A22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2">
+        <v>2858</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1012</v>
+      </c>
+      <c r="C24" s="2">
+        <v>273</v>
+      </c>
+      <c r="D24" s="2">
+        <v>329</v>
+      </c>
+      <c r="E24" s="2">
+        <v>603</v>
+      </c>
+      <c r="F24" s="2">
+        <v>156</v>
+      </c>
+      <c r="G24" s="2">
+        <v>61</v>
+      </c>
+      <c r="H24" s="2">
+        <v>57</v>
+      </c>
+      <c r="I24" s="4">
+        <v>43098</v>
+      </c>
+      <c r="J24">
+        <f>B24-B23</f>
+        <v>28</v>
+      </c>
+      <c r="K24" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24">
+        <f>A24-A23</f>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,6 +85,127 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,89 +214,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -185,44 +223,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -238,25 +238,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,13 +370,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,31 +382,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,97 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,17 +429,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -482,15 +471,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -524,8 +504,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,133 +549,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,18 +1043,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="8" width="10.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.8166666666667" style="2"/>
-    <col min="11" max="11" width="7.375" customWidth="1"/>
+    <col min="5" max="8" width="10.3727272727273" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.8181818181818" style="2"/>
+    <col min="11" max="11" width="7.37272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:9">
@@ -1096,7 +1098,7 @@
         <v>183</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J23" si="0">B3-B2</f>
+        <f t="shared" ref="J3:J25" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="K3" t="s">
@@ -1295,7 +1297,7 @@
         <v>14</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:L23" si="1">A13-A12</f>
+        <f t="shared" ref="L13:L25" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -1662,15 +1664,95 @@
         <v>43098</v>
       </c>
       <c r="J24">
-        <f>B24-B23</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="K24" t="s">
         <v>11</v>
       </c>
       <c r="L24">
-        <f>A24-A23</f>
+        <f t="shared" si="1"/>
         <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2">
+        <v>2978</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1030</v>
+      </c>
+      <c r="C25" s="2">
+        <v>279</v>
+      </c>
+      <c r="D25" s="2">
+        <v>339</v>
+      </c>
+      <c r="E25" s="2">
+        <v>613</v>
+      </c>
+      <c r="F25" s="2">
+        <v>166</v>
+      </c>
+      <c r="G25" s="2">
+        <v>65</v>
+      </c>
+      <c r="H25" s="2">
+        <v>72</v>
+      </c>
+      <c r="I25" s="4">
+        <v>43099</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="2">
+        <v>3070</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1047</v>
+      </c>
+      <c r="C26" s="2">
+        <v>279</v>
+      </c>
+      <c r="D26" s="2">
+        <v>353</v>
+      </c>
+      <c r="E26" s="2">
+        <v>619</v>
+      </c>
+      <c r="F26" s="2">
+        <v>169</v>
+      </c>
+      <c r="G26" s="2">
+        <v>81</v>
+      </c>
+      <c r="H26" s="2">
+        <v>81</v>
+      </c>
+      <c r="I26" s="4">
+        <v>43100</v>
+      </c>
+      <c r="J26">
+        <f>B26-B25</f>
+        <v>17</v>
+      </c>
+      <c r="K26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26">
+        <f>A26-A25</f>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1689,7 +1771,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1706,7 +1788,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -71,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -86,21 +86,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,6 +122,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -137,14 +207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -154,46 +216,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,29 +228,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -238,187 +238,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,24 +434,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,6 +482,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -501,11 +506,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,17 +529,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -537,145 +537,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,12 +1043,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
+      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1098,7 +1098,7 @@
         <v>183</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J25" si="0">B3-B2</f>
+        <f t="shared" ref="J3:J26" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="K3" t="s">
@@ -1297,7 +1297,7 @@
         <v>14</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:L25" si="1">A13-A12</f>
+        <f t="shared" ref="L13:L26" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -1744,15 +1744,55 @@
         <v>43100</v>
       </c>
       <c r="J26">
-        <f>B26-B25</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="K26" t="s">
         <v>13</v>
       </c>
       <c r="L26">
-        <f>A26-A25</f>
+        <f t="shared" si="1"/>
         <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="2">
+        <v>3142</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1071</v>
+      </c>
+      <c r="C27" s="2">
+        <v>283</v>
+      </c>
+      <c r="D27" s="2">
+        <v>366</v>
+      </c>
+      <c r="E27" s="2">
+        <v>629</v>
+      </c>
+      <c r="F27" s="2">
+        <v>174</v>
+      </c>
+      <c r="G27" s="2">
+        <v>86</v>
+      </c>
+      <c r="H27" s="2">
+        <v>89</v>
+      </c>
+      <c r="I27" s="4">
+        <v>43101</v>
+      </c>
+      <c r="J27">
+        <f>B27-B26</f>
+        <v>24</v>
+      </c>
+      <c r="K27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27">
+        <f>A27-A26</f>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -87,6 +87,103 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,30 +197,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,98 +228,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -238,61 +238,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,13 +400,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,97 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,11 +434,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -447,6 +454,47 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -468,45 +516,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -520,15 +529,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -537,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,133 +549,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,20 +1043,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="8" width="10.3727272727273" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.8181818181818" style="2"/>
-    <col min="11" max="11" width="7.37272727272727" customWidth="1"/>
+    <col min="5" max="8" width="10.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.8166666666667" style="2"/>
+    <col min="11" max="11" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:9">
@@ -1098,7 +1098,7 @@
         <v>183</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J26" si="0">B3-B2</f>
+        <f t="shared" ref="J3:J27" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="K3" t="s">
@@ -1297,7 +1297,7 @@
         <v>14</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:L26" si="1">A13-A12</f>
+        <f t="shared" ref="L13:L27" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -1784,15 +1784,55 @@
         <v>43101</v>
       </c>
       <c r="J27">
-        <f>B27-B26</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="K27" t="s">
         <v>14</v>
       </c>
       <c r="L27">
-        <f>A27-A26</f>
+        <f t="shared" si="1"/>
         <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="2">
+        <v>3218</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1102</v>
+      </c>
+      <c r="C28" s="2">
+        <v>284</v>
+      </c>
+      <c r="D28" s="2">
+        <v>379</v>
+      </c>
+      <c r="E28" s="2">
+        <v>636</v>
+      </c>
+      <c r="F28" s="2">
+        <v>176</v>
+      </c>
+      <c r="G28" s="2">
+        <v>98</v>
+      </c>
+      <c r="H28" s="2">
+        <v>99</v>
+      </c>
+      <c r="I28" s="4">
+        <v>43102</v>
+      </c>
+      <c r="J28">
+        <f>B28-B27</f>
+        <v>31</v>
+      </c>
+      <c r="K28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28">
+        <f>A28-A27</f>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1811,7 +1851,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1828,7 +1868,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,14 +86,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,17 +147,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,8 +161,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,7 +199,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,23 +207,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,30 +222,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -238,187 +238,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,11 +432,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,6 +467,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,21 +500,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,21 +529,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -537,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,133 +549,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,20 +1043,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="8" width="10.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.8166666666667" style="2"/>
-    <col min="11" max="11" width="7.375" customWidth="1"/>
+    <col min="5" max="8" width="10.3727272727273" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.8181818181818" style="2"/>
+    <col min="11" max="11" width="7.37272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:9">
@@ -1098,7 +1098,7 @@
         <v>183</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J27" si="0">B3-B2</f>
+        <f t="shared" ref="J3:J28" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="K3" t="s">
@@ -1297,7 +1297,7 @@
         <v>14</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:L27" si="1">A13-A12</f>
+        <f t="shared" ref="L13:L28" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -1824,15 +1824,55 @@
         <v>43102</v>
       </c>
       <c r="J28">
-        <f>B28-B27</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="K28" t="s">
         <v>15</v>
       </c>
       <c r="L28">
-        <f>A28-A27</f>
+        <f t="shared" si="1"/>
         <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="2">
+        <v>3314</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1134</v>
+      </c>
+      <c r="C29" s="2">
+        <v>287</v>
+      </c>
+      <c r="D29" s="2">
+        <v>400</v>
+      </c>
+      <c r="E29" s="2">
+        <v>645</v>
+      </c>
+      <c r="F29" s="2">
+        <v>189</v>
+      </c>
+      <c r="G29" s="2">
+        <v>101</v>
+      </c>
+      <c r="H29" s="2">
+        <v>106</v>
+      </c>
+      <c r="I29" s="4">
+        <v>43103</v>
+      </c>
+      <c r="J29">
+        <f>B29-B28</f>
+        <v>32</v>
+      </c>
+      <c r="K29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29">
+        <f>A29-A28</f>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1851,7 +1891,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1868,7 +1908,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -85,92 +85,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,15 +116,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,12 +145,89 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -238,187 +238,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,50 +432,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,16 +483,49 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,133 +549,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,20 +1043,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="8" width="10.3727272727273" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.8181818181818" style="2"/>
-    <col min="11" max="11" width="7.37272727272727" customWidth="1"/>
+    <col min="5" max="8" width="10.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.8166666666667" style="2"/>
+    <col min="11" max="11" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:9">
@@ -1098,7 +1098,7 @@
         <v>183</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J28" si="0">B3-B2</f>
+        <f t="shared" ref="J3:J29" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="K3" t="s">
@@ -1297,7 +1297,7 @@
         <v>14</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:L28" si="1">A13-A12</f>
+        <f t="shared" ref="L13:L29" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -1864,15 +1864,55 @@
         <v>43103</v>
       </c>
       <c r="J29">
-        <f>B29-B28</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="K29" t="s">
         <v>9</v>
       </c>
       <c r="L29">
-        <f>A29-A28</f>
+        <f t="shared" si="1"/>
         <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="2">
+        <v>3429</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1152</v>
+      </c>
+      <c r="C30" s="2">
+        <v>287</v>
+      </c>
+      <c r="D30" s="2">
+        <v>418</v>
+      </c>
+      <c r="E30" s="2">
+        <v>659</v>
+      </c>
+      <c r="F30" s="2">
+        <v>195</v>
+      </c>
+      <c r="G30" s="2">
+        <v>109</v>
+      </c>
+      <c r="H30" s="2">
+        <v>109</v>
+      </c>
+      <c r="I30" s="4">
+        <v>43104</v>
+      </c>
+      <c r="J30">
+        <f>B30-B29</f>
+        <v>18</v>
+      </c>
+      <c r="K30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30">
+        <f>A30-A29</f>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1891,7 +1931,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1908,7 +1948,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -85,9 +85,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,52 +192,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,33 +215,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,28 +228,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -238,187 +238,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,30 +429,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -473,11 +449,44 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,31 +510,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,133 +549,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,20 +1043,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="8" width="10.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.8166666666667" style="2"/>
-    <col min="11" max="11" width="7.375" customWidth="1"/>
+    <col min="5" max="8" width="10.3727272727273" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.8181818181818" style="2"/>
+    <col min="11" max="11" width="7.37272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:9">
@@ -1098,7 +1098,7 @@
         <v>183</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J29" si="0">B3-B2</f>
+        <f t="shared" ref="J3:J30" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="K3" t="s">
@@ -1297,7 +1297,7 @@
         <v>14</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:L29" si="1">A13-A12</f>
+        <f t="shared" ref="L13:L30" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -1904,15 +1904,55 @@
         <v>43104</v>
       </c>
       <c r="J30">
-        <f>B30-B29</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="K30" t="s">
         <v>10</v>
       </c>
       <c r="L30">
-        <f>A30-A29</f>
+        <f t="shared" si="1"/>
         <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="2">
+        <v>3638</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1208</v>
+      </c>
+      <c r="C31" s="2">
+        <v>287</v>
+      </c>
+      <c r="D31" s="2">
+        <v>461</v>
+      </c>
+      <c r="E31" s="2">
+        <v>678</v>
+      </c>
+      <c r="F31" s="2">
+        <v>206</v>
+      </c>
+      <c r="G31" s="2">
+        <v>124</v>
+      </c>
+      <c r="H31" s="2">
+        <v>118</v>
+      </c>
+      <c r="I31" s="4">
+        <v>43106</v>
+      </c>
+      <c r="J31">
+        <f>B31-B30</f>
+        <v>56</v>
+      </c>
+      <c r="K31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31">
+        <f>A31-A30</f>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1931,7 +1971,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1948,7 +1988,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -86,7 +86,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,22 +122,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,6 +168,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -160,39 +183,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,18 +206,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -238,19 +238,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,163 +388,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,6 +429,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,22 +500,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,45 +529,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -537,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,133 +549,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,20 +1043,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="8" width="10.3727272727273" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.8181818181818" style="2"/>
-    <col min="11" max="11" width="7.37272727272727" customWidth="1"/>
+    <col min="5" max="8" width="10.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.8166666666667" style="2"/>
+    <col min="11" max="11" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:9">
@@ -1098,7 +1098,7 @@
         <v>183</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J30" si="0">B3-B2</f>
+        <f t="shared" ref="J3:J31" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="K3" t="s">
@@ -1297,7 +1297,7 @@
         <v>14</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:L30" si="1">A13-A12</f>
+        <f t="shared" ref="L13:L31" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -1944,15 +1944,55 @@
         <v>43106</v>
       </c>
       <c r="J31">
-        <f>B31-B30</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="K31" t="s">
         <v>12</v>
       </c>
       <c r="L31">
-        <f>A31-A30</f>
+        <f t="shared" si="1"/>
         <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="2">
+        <v>3798</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1221</v>
+      </c>
+      <c r="C32" s="2">
+        <v>292</v>
+      </c>
+      <c r="D32" s="2">
+        <v>469</v>
+      </c>
+      <c r="E32" s="2">
+        <v>685</v>
+      </c>
+      <c r="F32" s="2">
+        <v>221</v>
+      </c>
+      <c r="G32" s="2">
+        <v>131</v>
+      </c>
+      <c r="H32" s="2">
+        <v>123</v>
+      </c>
+      <c r="I32" s="4">
+        <v>43107</v>
+      </c>
+      <c r="J32">
+        <f>B32-B31</f>
+        <v>13</v>
+      </c>
+      <c r="K32" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32">
+        <f>A32-A31</f>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1971,7 +2011,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1988,7 +2028,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19100" windowHeight="8110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,8 +72,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -86,51 +86,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,23 +110,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,6 +124,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -184,23 +140,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,20 +154,80 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -238,13 +238,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,25 +376,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,139 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,15 +429,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -467,11 +458,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,8 +491,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,17 +512,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,133 +549,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,20 +1043,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="8" width="10.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.8166666666667" style="2"/>
-    <col min="11" max="11" width="7.375" customWidth="1"/>
+    <col min="5" max="8" width="10.3727272727273" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.8181818181818" style="2"/>
+    <col min="11" max="11" width="7.37272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:9">
@@ -1098,7 +1098,7 @@
         <v>183</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J31" si="0">B3-B2</f>
+        <f t="shared" ref="J3:J32" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="K3" t="s">
@@ -1297,7 +1297,7 @@
         <v>14</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:L31" si="1">A13-A12</f>
+        <f t="shared" ref="L13:L32" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -1984,15 +1984,55 @@
         <v>43107</v>
       </c>
       <c r="J32">
-        <f>B32-B31</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="K32" t="s">
         <v>13</v>
       </c>
       <c r="L32">
-        <f>A32-A31</f>
+        <f t="shared" si="1"/>
         <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="2">
+        <v>3920</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1255</v>
+      </c>
+      <c r="C33" s="2">
+        <v>294</v>
+      </c>
+      <c r="D33" s="2">
+        <v>485</v>
+      </c>
+      <c r="E33" s="2">
+        <v>690</v>
+      </c>
+      <c r="F33" s="2">
+        <v>225</v>
+      </c>
+      <c r="G33" s="2">
+        <v>137</v>
+      </c>
+      <c r="H33" s="2">
+        <v>125</v>
+      </c>
+      <c r="I33" s="4">
+        <v>43108</v>
+      </c>
+      <c r="J33">
+        <f>B33-B32</f>
+        <v>34</v>
+      </c>
+      <c r="K33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33">
+        <f>A33-A32</f>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +2051,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2028,7 +2068,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="8110"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -82,75 +82,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,15 +99,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,9 +115,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,6 +160,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -214,20 +205,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -238,109 +238,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,67 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,71 +429,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -529,6 +464,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -537,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,133 +549,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,20 +1043,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
+      <selection pane="bottomLeft" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="8" width="10.3727272727273" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.8181818181818" style="2"/>
-    <col min="11" max="11" width="7.37272727272727" customWidth="1"/>
+    <col min="5" max="8" width="10.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.8166666666667" style="2"/>
+    <col min="11" max="11" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:9">
@@ -1098,7 +1098,7 @@
         <v>183</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J32" si="0">B3-B2</f>
+        <f t="shared" ref="J3:J33" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="K3" t="s">
@@ -1297,7 +1297,7 @@
         <v>14</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:L32" si="1">A13-A12</f>
+        <f t="shared" ref="L13:L33" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -2024,15 +2024,55 @@
         <v>43108</v>
       </c>
       <c r="J33">
-        <f>B33-B32</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="K33" t="s">
         <v>14</v>
       </c>
       <c r="L33">
-        <f>A33-A32</f>
+        <f t="shared" si="1"/>
         <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="2">
+        <v>4071</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1287</v>
+      </c>
+      <c r="C34" s="2">
+        <v>299</v>
+      </c>
+      <c r="D34" s="2">
+        <v>514</v>
+      </c>
+      <c r="E34" s="2">
+        <v>699</v>
+      </c>
+      <c r="F34" s="2">
+        <v>241</v>
+      </c>
+      <c r="G34" s="2">
+        <v>143</v>
+      </c>
+      <c r="H34" s="2">
+        <v>135</v>
+      </c>
+      <c r="I34" s="4">
+        <v>43109</v>
+      </c>
+      <c r="J34">
+        <f>B34-B33</f>
+        <v>32</v>
+      </c>
+      <c r="K34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34">
+        <f>A34-A33</f>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2051,7 +2091,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2068,7 +2108,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19100" windowHeight="8110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>总</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>六年级上册pep</t>
+  </si>
+  <si>
+    <t>少儿英语</t>
   </si>
   <si>
     <t>日期</t>
@@ -71,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -86,14 +89,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,7 +119,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,22 +177,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,7 +187,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,36 +216,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -212,22 +231,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -238,174 +241,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -413,12 +422,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,35 +435,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,38 +492,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,6 +517,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -537,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,23 +1046,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="8" width="10.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.8166666666667" style="2"/>
-    <col min="11" max="11" width="7.375" customWidth="1"/>
+    <col min="5" max="9" width="10.3727272727273" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.8181818181818" style="2"/>
+    <col min="12" max="12" width="7.37272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1086,6 +1089,9 @@
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -1093,121 +1099,121 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:12">
       <c r="B3" s="2">
         <v>183</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J33" si="0">B3-B2</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K34" si="0">B3-B2</f>
         <v>31</v>
       </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
       <c r="B4" s="2">
         <v>216</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="K4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
       <c r="B5" s="2">
         <v>251</v>
       </c>
       <c r="C5" s="2">
         <v>152</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>43076</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
       <c r="B6" s="2">
         <v>289</v>
       </c>
       <c r="C6" s="2">
         <v>164</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>43077</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="K6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7" s="2">
         <v>349</v>
       </c>
       <c r="C7" s="2">
         <v>175</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>43079</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="K7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8" s="2">
         <v>382</v>
       </c>
       <c r="C8" s="2">
         <v>184</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>43080</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="K8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
+      <c r="L8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
       <c r="B9" s="2">
         <v>410</v>
       </c>
       <c r="C9" s="2">
         <v>190</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>43081</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="K9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10" s="2">
         <v>441</v>
       </c>
@@ -1217,18 +1223,18 @@
       <c r="D10" s="2">
         <v>17</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>43082</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="K10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
+      <c r="L10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11" s="2">
         <v>473</v>
       </c>
@@ -1238,18 +1244,18 @@
       <c r="D11" s="2">
         <v>44</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>43083</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="K11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>861</v>
       </c>
@@ -1262,18 +1268,18 @@
       <c r="D12" s="2">
         <v>76</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>43085</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="K12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>984</v>
       </c>
@@ -1286,22 +1292,22 @@
       <c r="D13" s="2">
         <v>80</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>43087</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="K13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13">
-        <f t="shared" ref="L13:L33" si="1">A13-A12</f>
+      <c r="L13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13:M34" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>1178</v>
       </c>
@@ -1314,22 +1320,22 @@
       <c r="D14" s="2">
         <v>129</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>43088</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="K14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14">
+      <c r="L14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="1"/>
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>1292</v>
       </c>
@@ -1342,22 +1348,22 @@
       <c r="D15" s="2">
         <v>143</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>43089</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="K15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15">
+      <c r="L15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="2">
         <v>1548</v>
       </c>
@@ -1373,22 +1379,22 @@
       <c r="E16" s="2">
         <v>484</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>43090</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="K16" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16">
+      <c r="L16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="1"/>
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" s="2">
         <v>2038</v>
       </c>
@@ -1404,22 +1410,22 @@
       <c r="E17" s="2">
         <v>508</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>43091</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K17" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17">
+      <c r="L17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="1"/>
         <v>490</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" s="2">
         <v>2139</v>
       </c>
@@ -1435,22 +1441,22 @@
       <c r="E18" s="2">
         <v>529</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>43092</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18">
+      <c r="L18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19" s="2">
         <v>2249</v>
       </c>
@@ -1466,22 +1472,22 @@
       <c r="E19" s="2">
         <v>546</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>43093</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="K19" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19">
+      <c r="L19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:13">
       <c r="A20" s="2">
         <v>2329</v>
       </c>
@@ -1500,22 +1506,22 @@
       <c r="F20" s="2">
         <v>115</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>43094</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="K20" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20">
+      <c r="L20" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13">
       <c r="A21" s="2">
         <v>2449</v>
       </c>
@@ -1540,22 +1546,22 @@
       <c r="H21" s="2">
         <v>26</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>43095</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="K21" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21">
+      <c r="L21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22" s="2">
         <v>2719</v>
       </c>
@@ -1580,22 +1586,22 @@
       <c r="H22" s="2">
         <v>40</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="4">
         <v>43096</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="K22" t="s">
-        <v>9</v>
-      </c>
-      <c r="L22">
+      <c r="L22" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13">
       <c r="A23" s="2">
         <v>2719</v>
       </c>
@@ -1620,22 +1626,22 @@
       <c r="H23" s="2">
         <v>45</v>
       </c>
-      <c r="I23" s="4">
+      <c r="J23" s="4">
         <v>43097</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="K23" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23">
+      <c r="L23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="A24" s="2">
         <v>2858</v>
       </c>
@@ -1660,22 +1666,22 @@
       <c r="H24" s="2">
         <v>57</v>
       </c>
-      <c r="I24" s="4">
+      <c r="J24" s="4">
         <v>43098</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="K24" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24">
+      <c r="L24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="1"/>
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13">
       <c r="A25" s="2">
         <v>2978</v>
       </c>
@@ -1700,22 +1706,22 @@
       <c r="H25" s="2">
         <v>72</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="4">
         <v>43099</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="K25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25">
+      <c r="L25" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26" s="2">
         <v>3070</v>
       </c>
@@ -1740,22 +1746,22 @@
       <c r="H26" s="2">
         <v>81</v>
       </c>
-      <c r="I26" s="4">
+      <c r="J26" s="4">
         <v>43100</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="K26" t="s">
-        <v>13</v>
-      </c>
-      <c r="L26">
+      <c r="L26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:13">
       <c r="A27" s="2">
         <v>3142</v>
       </c>
@@ -1780,22 +1786,22 @@
       <c r="H27" s="2">
         <v>89</v>
       </c>
-      <c r="I27" s="4">
+      <c r="J27" s="4">
         <v>43101</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="K27" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27">
+      <c r="L27" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="A28" s="2">
         <v>3218</v>
       </c>
@@ -1820,22 +1826,22 @@
       <c r="H28" s="2">
         <v>99</v>
       </c>
-      <c r="I28" s="4">
+      <c r="J28" s="4">
         <v>43102</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="K28" t="s">
-        <v>15</v>
-      </c>
-      <c r="L28">
+      <c r="L28" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="A29" s="2">
         <v>3314</v>
       </c>
@@ -1860,22 +1866,22 @@
       <c r="H29" s="2">
         <v>106</v>
       </c>
-      <c r="I29" s="4">
+      <c r="J29" s="4">
         <v>43103</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="K29" t="s">
-        <v>9</v>
-      </c>
-      <c r="L29">
+      <c r="L29" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:13">
       <c r="A30" s="2">
         <v>3429</v>
       </c>
@@ -1900,22 +1906,22 @@
       <c r="H30" s="2">
         <v>109</v>
       </c>
-      <c r="I30" s="4">
+      <c r="J30" s="4">
         <v>43104</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="K30" t="s">
-        <v>10</v>
-      </c>
-      <c r="L30">
+      <c r="L30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13">
       <c r="A31" s="2">
         <v>3638</v>
       </c>
@@ -1940,22 +1946,22 @@
       <c r="H31" s="2">
         <v>118</v>
       </c>
-      <c r="I31" s="4">
+      <c r="J31" s="4">
         <v>43106</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="K31" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31">
+      <c r="L31" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31">
         <f t="shared" si="1"/>
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13">
       <c r="A32" s="2">
         <v>3798</v>
       </c>
@@ -1980,22 +1986,22 @@
       <c r="H32" s="2">
         <v>123</v>
       </c>
-      <c r="I32" s="4">
+      <c r="J32" s="4">
         <v>43107</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="K32" t="s">
-        <v>13</v>
-      </c>
-      <c r="L32">
+      <c r="L32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:13">
       <c r="A33" s="2">
         <v>3920</v>
       </c>
@@ -2020,22 +2026,22 @@
       <c r="H33" s="2">
         <v>125</v>
       </c>
-      <c r="I33" s="4">
+      <c r="J33" s="4">
         <v>43108</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="K33" t="s">
-        <v>14</v>
-      </c>
-      <c r="L33">
+      <c r="L33" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:13">
       <c r="A34" s="2">
         <v>4071</v>
       </c>
@@ -2060,19 +2066,62 @@
       <c r="H34" s="2">
         <v>135</v>
       </c>
-      <c r="I34" s="4">
+      <c r="J34" s="4">
         <v>43109</v>
       </c>
-      <c r="J34">
-        <f>B34-B33</f>
+      <c r="K34">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="K34" t="s">
-        <v>15</v>
-      </c>
-      <c r="L34">
-        <f>A34-A33</f>
+      <c r="L34" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
         <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="2">
+        <v>4293</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1336</v>
+      </c>
+      <c r="C35" s="2">
+        <v>300</v>
+      </c>
+      <c r="D35" s="2">
+        <v>532</v>
+      </c>
+      <c r="E35" s="2">
+        <v>703</v>
+      </c>
+      <c r="F35" s="2">
+        <v>244</v>
+      </c>
+      <c r="G35" s="2">
+        <v>146</v>
+      </c>
+      <c r="H35" s="2">
+        <v>142</v>
+      </c>
+      <c r="I35" s="2">
+        <v>95</v>
+      </c>
+      <c r="J35" s="4">
+        <v>43110</v>
+      </c>
+      <c r="K35">
+        <f>B35-B34</f>
+        <v>49</v>
+      </c>
+      <c r="L35" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35">
+        <f>A35-A34</f>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2091,7 +2140,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2108,7 +2157,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="8110"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,8 +75,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -95,8 +95,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,14 +149,55 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,77 +231,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,31 +241,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,145 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,16 +445,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,6 +470,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,41 +532,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,145 +540,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,20 +1046,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="9" width="10.3727272727273" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.8181818181818" style="2"/>
-    <col min="12" max="12" width="7.37272727272727" customWidth="1"/>
+    <col min="5" max="9" width="10.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.8166666666667" style="2"/>
+    <col min="12" max="12" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:10">
@@ -1104,7 +1104,7 @@
         <v>183</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K34" si="0">B3-B2</f>
+        <f t="shared" ref="K3:K35" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="L3" t="s">
@@ -1303,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M34" si="1">A13-A12</f>
+        <f t="shared" ref="M13:M35" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -2113,15 +2113,58 @@
         <v>43110</v>
       </c>
       <c r="K35">
-        <f>B35-B34</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="L35" t="s">
         <v>10</v>
       </c>
       <c r="M35">
-        <f>A35-A34</f>
+        <f t="shared" si="1"/>
         <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2">
+        <v>4592</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1371</v>
+      </c>
+      <c r="C36" s="2">
+        <v>302</v>
+      </c>
+      <c r="D36" s="2">
+        <v>581</v>
+      </c>
+      <c r="E36" s="2">
+        <v>716</v>
+      </c>
+      <c r="F36" s="2">
+        <v>252</v>
+      </c>
+      <c r="G36" s="2">
+        <v>164</v>
+      </c>
+      <c r="H36" s="2">
+        <v>167</v>
+      </c>
+      <c r="I36" s="2">
+        <v>183</v>
+      </c>
+      <c r="J36" s="4">
+        <v>43111</v>
+      </c>
+      <c r="K36">
+        <f>B36-B35</f>
+        <v>35</v>
+      </c>
+      <c r="L36" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36">
+        <f>A36-A35</f>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -2140,7 +2183,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2157,7 +2200,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -76,8 +76,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,23 +95,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,9 +141,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,46 +187,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -203,16 +195,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,8 +217,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,79 +241,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,103 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +432,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -445,16 +478,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,49 +519,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,12 +1046,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:M36"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1104,7 +1104,7 @@
         <v>183</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K35" si="0">B3-B2</f>
+        <f t="shared" ref="K3:K36" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="L3" t="s">
@@ -1303,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M35" si="1">A13-A12</f>
+        <f t="shared" ref="M13:M36" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -2156,15 +2156,58 @@
         <v>43111</v>
       </c>
       <c r="K36">
-        <f>B36-B35</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="L36" t="s">
         <v>11</v>
       </c>
       <c r="M36">
-        <f>A36-A35</f>
+        <f t="shared" si="1"/>
         <v>299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2">
+        <v>4958</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1423</v>
+      </c>
+      <c r="C37" s="2">
+        <v>309</v>
+      </c>
+      <c r="D37" s="2">
+        <v>616</v>
+      </c>
+      <c r="E37" s="2">
+        <v>720</v>
+      </c>
+      <c r="F37" s="2">
+        <v>268</v>
+      </c>
+      <c r="G37" s="2">
+        <v>169</v>
+      </c>
+      <c r="H37" s="2">
+        <v>175</v>
+      </c>
+      <c r="I37" s="2">
+        <v>197</v>
+      </c>
+      <c r="J37" s="4">
+        <v>43112</v>
+      </c>
+      <c r="K37">
+        <f>B37-B36</f>
+        <v>52</v>
+      </c>
+      <c r="L37" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37">
+        <f>A37-A36</f>
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19100" windowHeight="8110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,52 +75,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -135,53 +97,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,7 +134,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +178,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -241,31 +241,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,79 +397,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,67 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,48 +432,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,10 +467,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -532,6 +488,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,20 +1046,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2:J37"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="9" width="10.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.8166666666667" style="2"/>
-    <col min="12" max="12" width="7.375" customWidth="1"/>
+    <col min="5" max="9" width="10.3727272727273" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.8181818181818" style="2"/>
+    <col min="12" max="12" width="7.37272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:10">
@@ -1104,7 +1104,7 @@
         <v>183</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K36" si="0">B3-B2</f>
+        <f t="shared" ref="K3:K38" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="L3" t="s">
@@ -1303,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M36" si="1">A13-A12</f>
+        <f t="shared" ref="M13:M38" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -2199,15 +2199,58 @@
         <v>43112</v>
       </c>
       <c r="K37">
-        <f>B37-B36</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="L37" t="s">
         <v>12</v>
       </c>
       <c r="M37">
-        <f>A37-A36</f>
+        <f t="shared" si="1"/>
         <v>366</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="2">
+        <v>5190</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1445</v>
+      </c>
+      <c r="C38" s="2">
+        <v>316</v>
+      </c>
+      <c r="D38" s="2">
+        <v>630</v>
+      </c>
+      <c r="E38" s="2">
+        <v>726</v>
+      </c>
+      <c r="F38" s="2">
+        <v>270</v>
+      </c>
+      <c r="G38" s="2">
+        <v>179</v>
+      </c>
+      <c r="H38" s="2">
+        <v>183</v>
+      </c>
+      <c r="I38" s="2">
+        <v>204</v>
+      </c>
+      <c r="J38" s="4">
+        <v>43113</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="L38" t="s">
+        <v>13</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="1"/>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2226,7 +2269,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2243,7 +2286,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="8110"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,8 +76,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -88,16 +88,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,7 +111,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,54 +170,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,24 +194,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,6 +208,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,187 +241,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,17 +435,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,6 +469,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -506,32 +532,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,20 +1046,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomLeft" activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="9" width="10.3727272727273" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.8181818181818" style="2"/>
-    <col min="12" max="12" width="7.37272727272727" customWidth="1"/>
+    <col min="5" max="9" width="10.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.8166666666667" style="2"/>
+    <col min="12" max="12" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:10">
@@ -2251,6 +2251,49 @@
       <c r="M38">
         <f t="shared" si="1"/>
         <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="2">
+        <v>5339</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1462</v>
+      </c>
+      <c r="C39" s="2">
+        <v>324</v>
+      </c>
+      <c r="D39" s="2">
+        <v>667</v>
+      </c>
+      <c r="E39" s="2">
+        <v>734</v>
+      </c>
+      <c r="F39" s="2">
+        <v>277</v>
+      </c>
+      <c r="G39" s="2">
+        <v>192</v>
+      </c>
+      <c r="H39" s="2">
+        <v>189</v>
+      </c>
+      <c r="I39" s="2">
+        <v>208</v>
+      </c>
+      <c r="J39" s="4">
+        <v>43114</v>
+      </c>
+      <c r="K39">
+        <f>B39-B38</f>
+        <v>17</v>
+      </c>
+      <c r="L39" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39">
+        <f>A39-A38</f>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2269,7 +2312,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2286,7 +2329,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19335" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,8 +74,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -85,6 +85,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,30 +118,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,7 +141,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,19 +201,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,39 +216,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,187 +241,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,45 +432,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -491,11 +452,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,9 +509,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,12 +1046,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L39" sqref="L39"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1104,7 +1104,7 @@
         <v>183</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K38" si="0">B3-B2</f>
+        <f t="shared" ref="K3:K39" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="L3" t="s">
@@ -1303,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M38" si="1">A13-A12</f>
+        <f t="shared" ref="M13:M39" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -2285,15 +2285,34 @@
         <v>43114</v>
       </c>
       <c r="K39">
-        <f>B39-B38</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="L39" t="s">
         <v>14</v>
       </c>
       <c r="M39">
-        <f>A39-A38</f>
+        <f t="shared" si="1"/>
         <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="2">
+        <v>5515</v>
+      </c>
+      <c r="J40" s="4">
+        <v>43115</v>
+      </c>
+      <c r="K40">
+        <f>B40-B39</f>
+        <v>-1462</v>
+      </c>
+      <c r="L40" t="s">
+        <v>15</v>
+      </c>
+      <c r="M40">
+        <f>A40-A39</f>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19335" windowHeight="10350"/>
+    <workbookView windowWidth="19100" windowHeight="8110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,9 +88,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,7 +110,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,28 +118,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,9 +131,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,7 +148,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,6 +185,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -187,22 +201,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,17 +224,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,187 +241,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,35 +435,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,7 +478,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,6 +508,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,17 +1049,17 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="9" width="10.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.8166666666667" style="2"/>
-    <col min="12" max="12" width="7.375" customWidth="1"/>
+    <col min="5" max="9" width="10.3727272727273" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.8181818181818" style="2"/>
+    <col min="12" max="12" width="7.37272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:10">
@@ -1104,7 +1104,7 @@
         <v>183</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K39" si="0">B3-B2</f>
+        <f t="shared" ref="K3:K40" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="L3" t="s">
@@ -1303,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M39" si="1">A13-A12</f>
+        <f t="shared" ref="M13:M40" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -2300,18 +2300,42 @@
       <c r="A40" s="2">
         <v>5515</v>
       </c>
+      <c r="B40" s="2">
+        <v>1480</v>
+      </c>
+      <c r="C40" s="2">
+        <v>332</v>
+      </c>
+      <c r="D40" s="2">
+        <v>705</v>
+      </c>
+      <c r="E40" s="2">
+        <v>741</v>
+      </c>
+      <c r="F40" s="2">
+        <v>285</v>
+      </c>
+      <c r="G40" s="2">
+        <v>192</v>
+      </c>
+      <c r="H40" s="2">
+        <v>191</v>
+      </c>
+      <c r="I40" s="2">
+        <v>212</v>
+      </c>
       <c r="J40" s="4">
         <v>43115</v>
       </c>
       <c r="K40">
-        <f>B40-B39</f>
-        <v>-1462</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="L40" t="s">
         <v>15</v>
       </c>
       <c r="M40">
-        <f>A40-A39</f>
+        <f t="shared" si="1"/>
         <v>176</v>
       </c>
     </row>
@@ -2331,7 +2355,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2348,7 +2372,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="8110"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,8 +95,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,14 +134,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,6 +188,30 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,92 +231,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,187 +241,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +432,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -459,6 +483,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -469,41 +502,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -526,9 +524,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,20 +1046,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A23:M41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="9" width="10.3727272727273" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.8181818181818" style="2"/>
-    <col min="12" max="12" width="7.37272727272727" customWidth="1"/>
+    <col min="5" max="9" width="10.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.8166666666667" style="2"/>
+    <col min="12" max="12" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:10">
@@ -2337,6 +2337,49 @@
       <c r="M40">
         <f t="shared" si="1"/>
         <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="2">
+        <v>5761</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1487</v>
+      </c>
+      <c r="C41" s="2">
+        <v>334</v>
+      </c>
+      <c r="D41" s="2">
+        <v>726</v>
+      </c>
+      <c r="E41" s="2">
+        <v>751</v>
+      </c>
+      <c r="F41" s="2">
+        <v>288</v>
+      </c>
+      <c r="G41" s="2">
+        <v>195</v>
+      </c>
+      <c r="H41" s="2">
+        <v>200</v>
+      </c>
+      <c r="I41" s="2">
+        <v>212</v>
+      </c>
+      <c r="J41" s="4">
+        <v>43116</v>
+      </c>
+      <c r="K41">
+        <f>B41-B40</f>
+        <v>7</v>
+      </c>
+      <c r="L41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41">
+        <f>A41-A40</f>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2355,7 +2398,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2372,7 +2415,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -74,9 +74,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -89,7 +89,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,8 +163,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,15 +179,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,84 +219,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,55 +241,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,43 +409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,79 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,48 +437,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +470,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -522,13 +509,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,12 +1046,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A23:M41"/>
+      <selection pane="bottomLeft" activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1104,7 +1104,7 @@
         <v>183</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K40" si="0">B3-B2</f>
+        <f t="shared" ref="K3:K41" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="L3" t="s">
@@ -1303,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M40" si="1">A13-A12</f>
+        <f t="shared" ref="M13:M41" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -2371,15 +2371,34 @@
         <v>43116</v>
       </c>
       <c r="K41">
-        <f>B41-B40</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L41" t="s">
         <v>16</v>
       </c>
       <c r="M41">
-        <f>A41-A40</f>
+        <f t="shared" si="1"/>
         <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="2">
+        <v>5895</v>
+      </c>
+      <c r="J42" s="4">
+        <v>43117</v>
+      </c>
+      <c r="K42">
+        <f>B42-B41</f>
+        <v>-1487</v>
+      </c>
+      <c r="L42" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42">
+        <f>A42-A41</f>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="19100" windowHeight="8110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -85,35 +85,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,18 +103,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,19 +135,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,15 +209,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,187 +241,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,17 +432,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,16 +445,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,6 +464,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,21 +488,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,9 +509,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,12 +1054,12 @@
       <selection pane="bottomLeft" activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="9" width="10.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.8166666666667" style="2"/>
-    <col min="12" max="12" width="7.375" customWidth="1"/>
+    <col min="5" max="9" width="10.3727272727273" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.8181818181818" style="2"/>
+    <col min="12" max="12" width="7.37272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:10">
@@ -1104,7 +1104,7 @@
         <v>183</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K41" si="0">B3-B2</f>
+        <f t="shared" ref="K3:K42" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="L3" t="s">
@@ -1303,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M41" si="1">A13-A12</f>
+        <f t="shared" ref="M13:M42" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -2386,18 +2386,42 @@
       <c r="A42" s="2">
         <v>5895</v>
       </c>
+      <c r="B42" s="2">
+        <v>1503</v>
+      </c>
+      <c r="C42" s="2">
+        <v>334</v>
+      </c>
+      <c r="D42" s="2">
+        <v>775</v>
+      </c>
+      <c r="E42" s="2">
+        <v>760</v>
+      </c>
+      <c r="F42" s="2">
+        <v>298</v>
+      </c>
+      <c r="G42" s="2">
+        <v>201</v>
+      </c>
+      <c r="H42" s="2">
+        <v>207</v>
+      </c>
+      <c r="I42" s="2">
+        <v>214</v>
+      </c>
       <c r="J42" s="4">
         <v>43117</v>
       </c>
       <c r="K42">
-        <f>B42-B41</f>
-        <v>-1487</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="L42" t="s">
         <v>10</v>
       </c>
       <c r="M42">
-        <f>A42-A41</f>
+        <f t="shared" si="1"/>
         <v>134</v>
       </c>
     </row>
@@ -2417,7 +2441,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2434,7 +2458,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="8110"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -89,7 +89,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -111,60 +111,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,7 +121,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,23 +136,58 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,16 +201,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,55 +241,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,127 +415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,6 +440,51 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,6 +506,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -476,62 +532,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,20 +1046,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M42" sqref="M42"/>
+      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="9" width="10.3727272727273" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.8181818181818" style="2"/>
-    <col min="12" max="12" width="7.37272727272727" customWidth="1"/>
+    <col min="5" max="9" width="10.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.8166666666667" style="2"/>
+    <col min="12" max="12" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:10">
@@ -2423,6 +2423,25 @@
       <c r="M42">
         <f t="shared" si="1"/>
         <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="2">
+        <v>6047</v>
+      </c>
+      <c r="J43" s="4">
+        <v>43118</v>
+      </c>
+      <c r="K43">
+        <f>B43-B42</f>
+        <v>-1503</v>
+      </c>
+      <c r="L43" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43">
+        <f>A43-A42</f>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2441,7 +2460,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2458,7 +2477,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="23280" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -85,6 +85,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,23 +112,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,21 +127,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -158,29 +170,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,32 +225,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,25 +241,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,157 +403,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,15 +432,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,17 +465,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,6 +500,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -514,24 +532,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,12 +1046,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
+      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1104,7 +1104,7 @@
         <v>183</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K42" si="0">B3-B2</f>
+        <f t="shared" ref="K3:K43" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="L3" t="s">
@@ -1303,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M42" si="1">A13-A12</f>
+        <f t="shared" ref="M13:M43" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -2427,21 +2427,88 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="2">
-        <v>6047</v>
+        <v>6479</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1535</v>
+      </c>
+      <c r="C43" s="2">
+        <v>347</v>
+      </c>
+      <c r="D43" s="2">
+        <v>813</v>
+      </c>
+      <c r="E43" s="2">
+        <v>768</v>
+      </c>
+      <c r="F43" s="2">
+        <v>302</v>
+      </c>
+      <c r="G43" s="2">
+        <v>207</v>
+      </c>
+      <c r="H43" s="2">
+        <v>218</v>
+      </c>
+      <c r="I43" s="2">
+        <v>217</v>
       </c>
       <c r="J43" s="4">
         <v>43118</v>
       </c>
       <c r="K43">
-        <f>B43-B42</f>
-        <v>-1503</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="L43" t="s">
         <v>11</v>
       </c>
       <c r="M43">
-        <f>A43-A42</f>
-        <v>152</v>
+        <f t="shared" si="1"/>
+        <v>584</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="2">
+        <v>7801</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1594</v>
+      </c>
+      <c r="C44" s="2">
+        <v>361</v>
+      </c>
+      <c r="D44" s="2">
+        <v>930</v>
+      </c>
+      <c r="E44" s="2">
+        <v>786</v>
+      </c>
+      <c r="F44" s="2">
+        <v>339</v>
+      </c>
+      <c r="G44" s="2">
+        <v>220</v>
+      </c>
+      <c r="H44" s="2">
+        <v>238</v>
+      </c>
+      <c r="I44" s="2">
+        <v>235</v>
+      </c>
+      <c r="J44" s="4">
+        <v>43122</v>
+      </c>
+      <c r="K44">
+        <f>B44-B43</f>
+        <v>59</v>
+      </c>
+      <c r="L44" t="s">
+        <v>15</v>
+      </c>
+      <c r="M44">
+        <f>A44-A43</f>
+        <v>1322</v>
       </c>
     </row>
   </sheetData>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="10350"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -85,14 +85,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,7 +96,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -112,15 +112,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,18 +132,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,8 +169,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,6 +193,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -187,31 +209,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,14 +226,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,31 +241,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,25 +379,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,115 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,17 +435,61 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,15 +512,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -484,51 +519,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,20 +1046,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
+      <selection pane="bottomLeft" activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="9" width="10.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.8166666666667" style="2"/>
-    <col min="12" max="12" width="7.375" customWidth="1"/>
+    <col min="5" max="9" width="10.3727272727273" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.8181818181818" style="2"/>
+    <col min="12" max="12" width="7.37272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:10">
@@ -1104,7 +1104,7 @@
         <v>183</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K43" si="0">B3-B2</f>
+        <f t="shared" ref="K3:K44" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="L3" t="s">
@@ -1303,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M43" si="1">A13-A12</f>
+        <f t="shared" ref="M13:M44" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -2500,15 +2500,58 @@
         <v>43122</v>
       </c>
       <c r="K44">
-        <f>B44-B43</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="L44" t="s">
         <v>15</v>
       </c>
       <c r="M44">
-        <f>A44-A43</f>
+        <f t="shared" si="1"/>
         <v>1322</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="2">
+        <v>7801</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1609</v>
+      </c>
+      <c r="C45" s="2">
+        <v>363</v>
+      </c>
+      <c r="D45" s="2">
+        <v>947</v>
+      </c>
+      <c r="E45" s="2">
+        <v>790</v>
+      </c>
+      <c r="F45" s="2">
+        <v>344</v>
+      </c>
+      <c r="G45" s="2">
+        <v>225</v>
+      </c>
+      <c r="H45" s="2">
+        <v>243</v>
+      </c>
+      <c r="I45" s="2">
+        <v>237</v>
+      </c>
+      <c r="J45" s="4">
+        <v>43123</v>
+      </c>
+      <c r="K45">
+        <f>B45-B44</f>
+        <v>15</v>
+      </c>
+      <c r="L45" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45">
+        <f>A45-A44</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2527,7 +2570,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2544,7 +2587,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730"/>
+    <workbookView windowWidth="19335" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -95,9 +95,123 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,120 +231,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,25 +241,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,151 +409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,59 +437,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,6 +468,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -532,6 +493,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -543,7 +543,7 @@
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,17 +1049,17 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N43" sqref="N43"/>
+      <selection pane="bottomLeft" activeCell="M45" sqref="A29:M45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="9" width="10.3727272727273" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.8181818181818" style="2"/>
-    <col min="12" max="12" width="7.37272727272727" customWidth="1"/>
+    <col min="5" max="9" width="10.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.8166666666667" style="2"/>
+    <col min="12" max="12" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:10">
@@ -1104,7 +1104,7 @@
         <v>183</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K44" si="0">B3-B2</f>
+        <f t="shared" ref="K3:K45" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="L3" t="s">
@@ -1303,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M44" si="1">A13-A12</f>
+        <f t="shared" ref="M13:M45" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -2543,14 +2543,14 @@
         <v>43123</v>
       </c>
       <c r="K45">
-        <f>B45-B44</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="L45" t="s">
         <v>16</v>
       </c>
       <c r="M45">
-        <f>A45-A44</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2570,7 +2570,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2587,7 +2587,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19335" windowHeight="10350"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,42 +95,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,75 +117,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -231,6 +139,98 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,49 +241,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,19 +391,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,109 +415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,9 +437,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,18 +480,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,36 +515,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -532,6 +523,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,145 +540,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,12 +1046,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M45" sqref="A29:M45"/>
+      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2552,6 +2552,49 @@
       <c r="M45">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="2">
+        <v>8143</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1632</v>
+      </c>
+      <c r="C46" s="2">
+        <v>373</v>
+      </c>
+      <c r="D46" s="2">
+        <v>970</v>
+      </c>
+      <c r="E46" s="2">
+        <v>795</v>
+      </c>
+      <c r="F46" s="2">
+        <v>351</v>
+      </c>
+      <c r="G46" s="2">
+        <v>236</v>
+      </c>
+      <c r="H46" s="2">
+        <v>253</v>
+      </c>
+      <c r="I46" s="2">
+        <v>239</v>
+      </c>
+      <c r="J46" s="4">
+        <v>43124</v>
+      </c>
+      <c r="K46">
+        <f>B46-B45</f>
+        <v>23</v>
+      </c>
+      <c r="L46" t="s">
+        <v>10</v>
+      </c>
+      <c r="M46">
+        <f>A46-A45</f>
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="19335" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -88,16 +88,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,7 +104,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,7 +112,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,46 +134,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,6 +157,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -216,6 +193,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -224,11 +217,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -241,187 +241,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,17 +432,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -457,6 +446,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,8 +492,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,39 +532,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,12 +1046,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
+      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1104,7 +1104,7 @@
         <v>183</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K45" si="0">B3-B2</f>
+        <f t="shared" ref="K3:K46" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="L3" t="s">
@@ -1303,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M45" si="1">A13-A12</f>
+        <f t="shared" ref="M13:M46" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -2586,15 +2586,58 @@
         <v>43124</v>
       </c>
       <c r="K46">
-        <f>B46-B45</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="L46" t="s">
         <v>10</v>
       </c>
       <c r="M46">
-        <f>A46-A45</f>
+        <f t="shared" si="1"/>
         <v>342</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="2">
+        <v>8960</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1660</v>
+      </c>
+      <c r="C47" s="2">
+        <v>382</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1009</v>
+      </c>
+      <c r="E47" s="2">
+        <v>812</v>
+      </c>
+      <c r="F47" s="2">
+        <v>357</v>
+      </c>
+      <c r="G47" s="2">
+        <v>249</v>
+      </c>
+      <c r="H47" s="2">
+        <v>269</v>
+      </c>
+      <c r="I47" s="2">
+        <v>250</v>
+      </c>
+      <c r="J47" s="4">
+        <v>43125</v>
+      </c>
+      <c r="K47">
+        <f>B47-B46</f>
+        <v>28</v>
+      </c>
+      <c r="L47" t="s">
+        <v>11</v>
+      </c>
+      <c r="M47">
+        <f>A47-A46</f>
+        <v>817</v>
       </c>
     </row>
   </sheetData>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -75,9 +75,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -88,16 +88,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,9 +117,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,7 +140,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,10 +185,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,59 +231,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,19 +241,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,163 +367,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +432,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,6 +457,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,59 +509,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -532,6 +523,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,12 +1046,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
+      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1104,7 +1104,7 @@
         <v>183</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K46" si="0">B3-B2</f>
+        <f t="shared" ref="K3:K47" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="L3" t="s">
@@ -1303,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M46" si="1">A13-A12</f>
+        <f t="shared" ref="M13:M47" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -2629,15 +2629,58 @@
         <v>43125</v>
       </c>
       <c r="K47">
-        <f>B47-B46</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="L47" t="s">
         <v>11</v>
       </c>
       <c r="M47">
-        <f>A47-A46</f>
+        <f t="shared" si="1"/>
         <v>817</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="2">
+        <v>9328</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1671</v>
+      </c>
+      <c r="C48" s="2">
+        <v>392</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1032</v>
+      </c>
+      <c r="E48" s="2">
+        <v>819</v>
+      </c>
+      <c r="F48" s="2">
+        <v>367</v>
+      </c>
+      <c r="G48" s="2">
+        <v>257</v>
+      </c>
+      <c r="H48" s="2">
+        <v>273</v>
+      </c>
+      <c r="I48" s="2">
+        <v>252</v>
+      </c>
+      <c r="J48" s="4">
+        <v>43126</v>
+      </c>
+      <c r="K48">
+        <f>B48-B47</f>
+        <v>11</v>
+      </c>
+      <c r="L48" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48">
+        <f>A48-A47</f>
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19335" windowHeight="10350"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -111,21 +124,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -139,33 +184,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,7 +201,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -193,44 +224,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,103 +241,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,19 +403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,54 +422,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,41 +432,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -495,16 +460,45 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,11 +518,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,20 +1046,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
+      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="9" width="10.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.8166666666667" style="2"/>
-    <col min="12" max="12" width="7.375" customWidth="1"/>
+    <col min="5" max="9" width="10.3727272727273" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.8181818181818" style="2"/>
+    <col min="12" max="12" width="7.37272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:10">
@@ -1104,7 +1104,7 @@
         <v>183</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K47" si="0">B3-B2</f>
+        <f t="shared" ref="K3:K49" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="L3" t="s">
@@ -1303,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M47" si="1">A13-A12</f>
+        <f t="shared" ref="M13:M49" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -2672,15 +2672,68 @@
         <v>43126</v>
       </c>
       <c r="K48">
-        <f>B48-B47</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="L48" t="s">
         <v>12</v>
       </c>
       <c r="M48">
-        <f>A48-A47</f>
+        <f t="shared" si="1"/>
         <v>368</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="2">
+        <v>9680</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1678</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1062</v>
+      </c>
+      <c r="J49" s="4">
+        <v>43127</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L49" t="s">
+        <v>13</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="1"/>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="2">
+        <v>9929</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1683</v>
+      </c>
+      <c r="C50" s="2">
+        <v>397</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1085</v>
+      </c>
+      <c r="J50" s="4">
+        <v>43128</v>
+      </c>
+      <c r="K50">
+        <f>B50-B49</f>
+        <v>5</v>
+      </c>
+      <c r="L50" t="s">
+        <v>14</v>
+      </c>
+      <c r="M50">
+        <f>A50-A49</f>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2699,7 +2752,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2716,7 +2769,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,15 +74,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -96,42 +111,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,9 +140,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,45 +172,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -209,7 +179,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -224,9 +194,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,6 +241,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -253,61 +313,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,108 +422,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,23 +438,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,22 +474,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,17 +513,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,15 +1051,15 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="9" width="10.3727272727273" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.8181818181818" style="2"/>
-    <col min="12" max="12" width="7.37272727272727" customWidth="1"/>
+    <col min="5" max="9" width="10.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.8166666666667" style="2"/>
+    <col min="12" max="12" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:10">
@@ -1104,7 +1104,7 @@
         <v>183</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K49" si="0">B3-B2</f>
+        <f t="shared" ref="K3:K50" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="L3" t="s">
@@ -1303,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M49" si="1">A13-A12</f>
+        <f t="shared" ref="M13:M50" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -2725,14 +2725,14 @@
         <v>43128</v>
       </c>
       <c r="K50">
-        <f>B50-B49</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="L50" t="s">
         <v>14</v>
       </c>
       <c r="M50">
-        <f>A50-A49</f>
+        <f t="shared" si="1"/>
         <v>249</v>
       </c>
     </row>
@@ -2752,7 +2752,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2769,7 +2769,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="19335" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -88,18 +88,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -110,8 +103,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,15 +171,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,67 +216,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,11 +224,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -241,25 +241,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,49 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,97 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,26 +435,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,16 +466,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,8 +483,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,8 +507,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,6 +523,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,7 +552,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,124 +561,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,12 +1046,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomLeft" activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2734,6 +2734,37 @@
       <c r="M50">
         <f t="shared" si="1"/>
         <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="2">
+        <v>10238</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1703</v>
+      </c>
+      <c r="C51" s="2">
+        <v>403</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1108</v>
+      </c>
+      <c r="I51" s="2">
+        <v>262</v>
+      </c>
+      <c r="J51" s="4">
+        <v>43129</v>
+      </c>
+      <c r="K51">
+        <f>B51-B50</f>
+        <v>20</v>
+      </c>
+      <c r="L51" t="s">
+        <v>15</v>
+      </c>
+      <c r="M51">
+        <f>A51-A50</f>
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19335" windowHeight="10350"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -88,14 +88,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -103,8 +95,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -119,7 +125,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,13 +139,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -148,30 +147,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,7 +180,22 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,22 +203,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,10 +218,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -241,187 +241,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +432,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,6 +474,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -482,9 +509,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,35 +532,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,19 +552,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,112 +573,112 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,20 +1046,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M55" sqref="M55"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="9" width="10.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.8166666666667" style="2"/>
-    <col min="12" max="12" width="7.375" customWidth="1"/>
+    <col min="5" max="9" width="10.3727272727273" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.8181818181818" style="2"/>
+    <col min="12" max="12" width="7.37272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:10">
@@ -1104,7 +1104,7 @@
         <v>183</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K50" si="0">B3-B2</f>
+        <f t="shared" ref="K3:K51" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="L3" t="s">
@@ -1303,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M50" si="1">A13-A12</f>
+        <f t="shared" ref="M13:M51" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -2756,15 +2756,43 @@
         <v>43129</v>
       </c>
       <c r="K51">
-        <f>B51-B50</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="L51" t="s">
         <v>15</v>
       </c>
       <c r="M51">
-        <f>A51-A50</f>
+        <f t="shared" si="1"/>
         <v>309</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="2">
+        <v>10553</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1723</v>
+      </c>
+      <c r="C52" s="2">
+        <v>416</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1161</v>
+      </c>
+      <c r="J52" s="4">
+        <v>43130</v>
+      </c>
+      <c r="K52">
+        <f>B52-B51</f>
+        <v>20</v>
+      </c>
+      <c r="L52" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52">
+        <f>A52-A51</f>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2783,7 +2811,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2800,7 +2828,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730"/>
+    <workbookView windowWidth="19335" windowHeight="9900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -103,37 +103,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,8 +132,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -164,7 +157,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,14 +179,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -208,29 +231,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,13 +241,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,7 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,37 +397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,109 +409,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,24 +437,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,8 +473,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,8 +497,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,32 +532,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,145 +540,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,20 +1046,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="9" width="10.3727272727273" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.8181818181818" style="2"/>
-    <col min="12" max="12" width="7.37272727272727" customWidth="1"/>
+    <col min="5" max="9" width="10.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.8166666666667" style="2"/>
+    <col min="12" max="12" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:10">
@@ -1104,7 +1104,7 @@
         <v>183</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K51" si="0">B3-B2</f>
+        <f t="shared" ref="K3:K53" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="L3" t="s">
@@ -1303,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M51" si="1">A13-A12</f>
+        <f t="shared" ref="M13:M53" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -2784,15 +2784,58 @@
         <v>43130</v>
       </c>
       <c r="K52">
-        <f>B52-B51</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="L52" t="s">
         <v>16</v>
       </c>
       <c r="M52">
-        <f>A52-A51</f>
+        <f t="shared" si="1"/>
         <v>315</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="2">
+        <v>10891</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1730</v>
+      </c>
+      <c r="C53" s="2">
+        <v>416</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1171</v>
+      </c>
+      <c r="E53" s="2">
+        <v>874</v>
+      </c>
+      <c r="F53" s="2">
+        <v>422</v>
+      </c>
+      <c r="G53" s="2">
+        <v>283</v>
+      </c>
+      <c r="H53" s="2">
+        <v>311</v>
+      </c>
+      <c r="I53" s="2">
+        <v>272</v>
+      </c>
+      <c r="J53" s="4">
+        <v>43131</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L53" t="s">
+        <v>10</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="1"/>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2811,7 +2854,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2828,7 +2871,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19335" windowHeight="9900"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -102,8 +102,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,30 +127,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,9 +149,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,22 +187,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,22 +231,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,13 +241,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,7 +391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,157 +409,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,13 +435,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,6 +454,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -473,6 +488,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -480,25 +504,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,21 +532,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,145 +540,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,20 +1046,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="9" width="10.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.8166666666667" style="2"/>
-    <col min="12" max="12" width="7.375" customWidth="1"/>
+    <col min="5" max="9" width="10.3727272727273" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.8181818181818" style="2"/>
+    <col min="12" max="12" width="7.37272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:10">
@@ -1104,7 +1104,7 @@
         <v>183</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K53" si="0">B3-B2</f>
+        <f t="shared" ref="K3:K55" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="L3" t="s">
@@ -1303,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M53" si="1">A13-A12</f>
+        <f t="shared" ref="M13:M55" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -2836,6 +2836,84 @@
       <c r="M53">
         <f t="shared" si="1"/>
         <v>338</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="2">
+        <v>11734</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1779</v>
+      </c>
+      <c r="C54" s="2">
+        <v>422</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1260</v>
+      </c>
+      <c r="J54" s="4">
+        <v>43133</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="L54" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="1"/>
+        <v>843</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="2">
+        <v>12161</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1782</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1267</v>
+      </c>
+      <c r="J55" s="4">
+        <v>43134</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L55" t="s">
+        <v>13</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="1"/>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="2">
+        <v>12516</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1792</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1288</v>
+      </c>
+      <c r="J56" s="4">
+        <v>43135</v>
+      </c>
+      <c r="K56">
+        <f>B56-B55</f>
+        <v>10</v>
+      </c>
+      <c r="L56" t="s">
+        <v>14</v>
+      </c>
+      <c r="M56">
+        <f>A56-A55</f>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -2854,7 +2932,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2871,7 +2949,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -76,8 +76,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -88,10 +88,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -102,24 +103,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,9 +117,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,46 +147,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,6 +179,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -218,15 +219,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,79 +241,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,48 +415,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,54 +422,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +432,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -485,24 +500,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -518,17 +515,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,12 +1046,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1104,7 +1104,7 @@
         <v>183</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K55" si="0">B3-B2</f>
+        <f t="shared" ref="K3:K56" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="L3" t="s">
@@ -1303,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M55" si="1">A13-A12</f>
+        <f t="shared" ref="M13:M56" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -2905,15 +2905,40 @@
         <v>43135</v>
       </c>
       <c r="K56">
-        <f>B56-B55</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L56" t="s">
         <v>14</v>
       </c>
       <c r="M56">
-        <f>A56-A55</f>
+        <f t="shared" si="1"/>
         <v>355</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="2">
+        <v>12830</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1803</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1317</v>
+      </c>
+      <c r="J57" s="4">
+        <v>43136</v>
+      </c>
+      <c r="K57">
+        <f>B57-B56</f>
+        <v>11</v>
+      </c>
+      <c r="L57" t="s">
+        <v>15</v>
+      </c>
+      <c r="M57">
+        <f>A57-A56</f>
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -74,8 +74,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -88,11 +88,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,21 +103,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,34 +117,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,6 +133,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -179,9 +149,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,14 +186,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -219,14 +195,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,18 +241,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -260,168 +422,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,36 +450,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -501,6 +475,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -514,24 +532,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,9 +1049,9 @@
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1104,7 +1104,7 @@
         <v>183</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K56" si="0">B3-B2</f>
+        <f t="shared" ref="K3:K57" si="0">B3-B2</f>
         <v>31</v>
       </c>
       <c r="L3" t="s">
@@ -1303,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M56" si="1">A13-A12</f>
+        <f t="shared" ref="M13:M57" si="1">A13-A12</f>
         <v>123</v>
       </c>
     </row>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="2">
-        <v>12830</v>
+        <v>12839</v>
       </c>
       <c r="B57" s="2">
         <v>1803</v>
@@ -2930,15 +2930,15 @@
         <v>43136</v>
       </c>
       <c r="K57">
-        <f>B57-B56</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="L57" t="s">
         <v>15</v>
       </c>
       <c r="M57">
-        <f>A57-A56</f>
-        <v>314</v>
+        <f t="shared" si="1"/>
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/englishhao/预览记录.xlsx
+++ b/englishhao/预览记录.xlsx
@@ -75,8 +75,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -88,8 +88,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,47 +111,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,6 +154,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -172,22 +210,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,32 +225,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,7 +241,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,7 +361,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,49 +379,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" t